--- a/op3/mosol.xlsx
+++ b/op3/mosol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2025-app\op3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39D467D-E901-47A4-B7F5-81E62EFF76ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7482626-6B5C-41D1-8629-77A61DD2E15A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Report 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Report 1'!$B$2:$AY$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Report 1'!$B$2:$BB$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="78">
   <si>
     <t>Fecha Orden</t>
   </si>
@@ -213,9 +213,6 @@
     <t>E3.</t>
   </si>
   <si>
-    <t>E9.</t>
-  </si>
-  <si>
     <t>F6.</t>
   </si>
   <si>
@@ -243,13 +240,34 @@
     <t>J.GA+J.IVA</t>
   </si>
   <si>
-    <t>F6.+F8.</t>
-  </si>
-  <si>
     <t>H1.</t>
   </si>
   <si>
     <t>Nro. Item</t>
+  </si>
+  <si>
+    <t>FOB (USD) x Item</t>
+  </si>
+  <si>
+    <t>I2.</t>
+  </si>
+  <si>
+    <t>I4.</t>
+  </si>
+  <si>
+    <t>SEGURO (USD) x Item</t>
+  </si>
+  <si>
+    <t>VALOR  CIF (USD) x Item</t>
+  </si>
+  <si>
+    <t>I8.</t>
+  </si>
+  <si>
+    <t>F10.</t>
+  </si>
+  <si>
+    <t>I1.</t>
   </si>
 </sst>
 </file>
@@ -424,7 +442,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -476,6 +494,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -911,10 +935,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AY9"/>
+  <dimension ref="B1:BB9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AG7" sqref="AG7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -942,28 +966,28 @@
     <col min="31" max="31" width="11.140625" customWidth="1"/>
     <col min="32" max="32" width="9.7109375" style="15" customWidth="1"/>
     <col min="33" max="33" width="15.5703125" customWidth="1"/>
-    <col min="34" max="34" width="9.28515625" customWidth="1"/>
-    <col min="35" max="35" width="13.140625" customWidth="1"/>
-    <col min="36" max="36" width="12.42578125" customWidth="1"/>
-    <col min="37" max="37" width="16.140625" customWidth="1"/>
-    <col min="38" max="38" width="15.28515625" customWidth="1"/>
-    <col min="39" max="39" width="13" customWidth="1"/>
-    <col min="40" max="40" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="8.85546875" customWidth="1"/>
-    <col min="42" max="42" width="11.5703125" customWidth="1"/>
-    <col min="43" max="43" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.7109375" customWidth="1"/>
-    <col min="45" max="45" width="15.7109375" customWidth="1"/>
-    <col min="46" max="46" width="12.5703125" customWidth="1"/>
-    <col min="47" max="47" width="9.5703125" customWidth="1"/>
-    <col min="48" max="48" width="16.28515625" customWidth="1"/>
-    <col min="49" max="49" width="16.42578125" customWidth="1"/>
-    <col min="50" max="50" width="18.42578125" customWidth="1"/>
-    <col min="51" max="51" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="52" max="250" width="8.85546875" customWidth="1"/>
+    <col min="34" max="35" width="9.28515625" customWidth="1"/>
+    <col min="36" max="36" width="13.140625" customWidth="1"/>
+    <col min="37" max="37" width="12.42578125" customWidth="1"/>
+    <col min="38" max="38" width="16.140625" customWidth="1"/>
+    <col min="39" max="39" width="15.28515625" customWidth="1"/>
+    <col min="40" max="41" width="13" customWidth="1"/>
+    <col min="42" max="42" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="8.85546875" customWidth="1"/>
+    <col min="44" max="45" width="11.5703125" customWidth="1"/>
+    <col min="46" max="46" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="13.7109375" customWidth="1"/>
+    <col min="48" max="48" width="15.7109375" customWidth="1"/>
+    <col min="49" max="49" width="12.5703125" customWidth="1"/>
+    <col min="50" max="50" width="9.5703125" customWidth="1"/>
+    <col min="51" max="51" width="16.28515625" customWidth="1"/>
+    <col min="52" max="52" width="16.42578125" customWidth="1"/>
+    <col min="53" max="53" width="18.42578125" customWidth="1"/>
+    <col min="54" max="54" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="55" max="253" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:51" s="1" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:54" s="1" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="13" t="s">
         <v>20</v>
       </c>
@@ -988,7 +1012,7 @@
         <v>52</v>
       </c>
       <c r="V1" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="W1" t="s">
         <v>53</v>
@@ -1000,7 +1024,7 @@
         <v>54</v>
       </c>
       <c r="Z1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AA1" t="s">
         <v>55</v>
@@ -1021,64 +1045,73 @@
         <v>58</v>
       </c>
       <c r="AG1" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="AH1" t="s">
         <v>51</v>
       </c>
       <c r="AI1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK1" t="s">
         <v>60</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO1" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP1" t="s">
         <v>61</v>
       </c>
-      <c r="AK1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AN1" t="s">
+      <c r="AQ1" t="s">
         <v>62</v>
       </c>
-      <c r="AO1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AQ1" s="16" t="s">
-        <v>69</v>
-      </c>
       <c r="AR1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS1" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT1" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AV1" t="s">
         <v>65</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AW1" t="s">
         <v>66</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>51</v>
       </c>
       <c r="AX1" t="s">
         <v>51</v>
       </c>
       <c r="AY1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AZ1" t="s">
         <v>51</v>
       </c>
+      <c r="BA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="2" spans="2:51" s="12" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:54" s="12" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
@@ -1140,7 +1173,7 @@
         <v>19</v>
       </c>
       <c r="V2" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="W2" s="2" t="s">
         <v>21</v>
@@ -1178,64 +1211,76 @@
       <c r="AH2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AI2" s="8" t="s">
+      <c r="AI2" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AJ2" s="9" t="s">
+      <c r="AK2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AK2" s="9" t="s">
+      <c r="AL2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="AL2" s="9" t="s">
+      <c r="AM2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AM2" s="9" t="s">
+      <c r="AN2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="AN2" s="9" t="s">
+      <c r="AO2" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="AO2" s="9" t="s">
+      <c r="AQ2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="AP2" s="9" t="s">
+      <c r="AR2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AQ2" s="9" t="s">
+      <c r="AS2" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AR2" s="9" t="s">
+      <c r="AU2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AS2" s="9" t="s">
+      <c r="AV2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AT2" s="9" t="s">
+      <c r="AW2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="AU2" s="9" t="s">
+      <c r="AX2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="AV2" s="9" t="s">
+      <c r="AY2" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="AW2" s="9" t="s">
+      <c r="AZ2" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="AX2" s="10" t="s">
+      <c r="BA2" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="AY2" s="9" t="s">
+      <c r="BB2" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="AI7" s="18"/>
+    </row>
+    <row r="9" spans="2:54" x14ac:dyDescent="0.2">
       <c r="V9" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:AY2" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:AY16">
+  <autoFilter ref="B2:BB2" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:BB16">
       <sortCondition ref="F2"/>
     </sortState>
   </autoFilter>

--- a/op3/mosol.xlsx
+++ b/op3/mosol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2025-app\op3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7482626-6B5C-41D1-8629-77A61DD2E15A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75036054-EA0D-4ED7-9AFD-344F599D3350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Report 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Report 1'!$B$2:$BB$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Report 1'!$B$2:$BF$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="85">
   <si>
     <t>Fecha Orden</t>
   </si>
@@ -261,13 +261,34 @@
     <t>VALOR  CIF (USD) x Item</t>
   </si>
   <si>
-    <t>I8.</t>
-  </si>
-  <si>
-    <t>F10.</t>
-  </si>
-  <si>
     <t>I1.</t>
+  </si>
+  <si>
+    <t>peso x item</t>
+  </si>
+  <si>
+    <t>H17.</t>
+  </si>
+  <si>
+    <t>I7.</t>
+  </si>
+  <si>
+    <t>GASTOS TRANS</t>
+  </si>
+  <si>
+    <t>I3.</t>
+  </si>
+  <si>
+    <t>GASTOS PORTUARIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTROS GASTOS </t>
+  </si>
+  <si>
+    <t>I5.</t>
+  </si>
+  <si>
+    <t>I6.</t>
   </si>
 </sst>
 </file>
@@ -935,10 +956,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:BB9"/>
+  <dimension ref="B1:BF9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AG7" sqref="AG7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="AQ6" sqref="AQ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -963,31 +984,31 @@
     <col min="28" max="28" width="23.42578125" customWidth="1"/>
     <col min="29" max="29" width="14" customWidth="1"/>
     <col min="30" max="30" width="8" customWidth="1"/>
-    <col min="31" max="31" width="11.140625" customWidth="1"/>
-    <col min="32" max="32" width="9.7109375" style="15" customWidth="1"/>
-    <col min="33" max="33" width="15.5703125" customWidth="1"/>
-    <col min="34" max="35" width="9.28515625" customWidth="1"/>
-    <col min="36" max="36" width="13.140625" customWidth="1"/>
-    <col min="37" max="37" width="12.42578125" customWidth="1"/>
-    <col min="38" max="38" width="16.140625" customWidth="1"/>
-    <col min="39" max="39" width="15.28515625" customWidth="1"/>
-    <col min="40" max="41" width="13" customWidth="1"/>
-    <col min="42" max="42" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="8.85546875" customWidth="1"/>
-    <col min="44" max="45" width="11.5703125" customWidth="1"/>
-    <col min="46" max="46" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="13.7109375" customWidth="1"/>
-    <col min="48" max="48" width="15.7109375" customWidth="1"/>
-    <col min="49" max="49" width="12.5703125" customWidth="1"/>
-    <col min="50" max="50" width="9.5703125" customWidth="1"/>
-    <col min="51" max="51" width="16.28515625" customWidth="1"/>
-    <col min="52" max="52" width="16.42578125" customWidth="1"/>
-    <col min="53" max="53" width="18.42578125" customWidth="1"/>
-    <col min="54" max="54" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="55" max="253" width="8.85546875" customWidth="1"/>
+    <col min="31" max="32" width="11.140625" customWidth="1"/>
+    <col min="33" max="33" width="9.7109375" style="15" customWidth="1"/>
+    <col min="34" max="34" width="15.5703125" customWidth="1"/>
+    <col min="35" max="36" width="9.28515625" customWidth="1"/>
+    <col min="37" max="37" width="13.140625" customWidth="1"/>
+    <col min="38" max="38" width="12.42578125" customWidth="1"/>
+    <col min="39" max="39" width="16.140625" customWidth="1"/>
+    <col min="40" max="43" width="15.28515625" customWidth="1"/>
+    <col min="44" max="45" width="13" customWidth="1"/>
+    <col min="46" max="46" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="8.85546875" customWidth="1"/>
+    <col min="48" max="49" width="11.5703125" customWidth="1"/>
+    <col min="50" max="50" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="13.7109375" customWidth="1"/>
+    <col min="52" max="52" width="15.7109375" customWidth="1"/>
+    <col min="53" max="53" width="12.5703125" customWidth="1"/>
+    <col min="54" max="54" width="9.5703125" customWidth="1"/>
+    <col min="55" max="55" width="16.28515625" customWidth="1"/>
+    <col min="56" max="56" width="16.42578125" customWidth="1"/>
+    <col min="57" max="57" width="18.42578125" customWidth="1"/>
+    <col min="58" max="58" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="59" max="257" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" s="1" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:58" s="1" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="13" t="s">
         <v>20</v>
       </c>
@@ -1042,76 +1063,88 @@
         <v>57</v>
       </c>
       <c r="AF1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG1" t="s">
         <v>58</v>
       </c>
-      <c r="AG1" t="s">
-        <v>77</v>
-      </c>
       <c r="AH1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI1" t="s">
         <v>51</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>71</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>59</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>60</v>
       </c>
       <c r="AL1" t="s">
         <v>60</v>
       </c>
       <c r="AM1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN1" t="s">
         <v>51</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR1" t="s">
         <v>60</v>
       </c>
-      <c r="AO1" s="16" t="s">
+      <c r="AS1" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AT1" t="s">
         <v>61</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AU1" t="s">
         <v>62</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AV1" t="s">
         <v>62</v>
       </c>
-      <c r="AS1" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="AT1" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="AU1" t="s">
+      <c r="AW1" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AX1" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AY1" t="s">
         <v>64</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AZ1" t="s">
         <v>65</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="BA1" t="s">
         <v>66</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>51</v>
       </c>
       <c r="BB1" t="s">
         <v>51</v>
       </c>
+      <c r="BC1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="2" spans="2:54" s="12" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:58" s="12" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
@@ -1202,85 +1235,97 @@
       <c r="AE2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AF2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" s="8" t="s">
+      <c r="AH2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" s="8" t="s">
+      <c r="AI2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AI2" s="19" t="s">
+      <c r="AJ2" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="AJ2" s="8" t="s">
+      <c r="AK2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AK2" s="9" t="s">
+      <c r="AL2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AL2" s="9" t="s">
+      <c r="AM2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="AM2" s="9" t="s">
+      <c r="AN2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AN2" s="9" t="s">
+      <c r="AO2" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP2" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ2" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="AO2" s="20" t="s">
+      <c r="AS2" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="AP2" s="9" t="s">
+      <c r="AT2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="AQ2" s="9" t="s">
+      <c r="AU2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="AR2" s="9" t="s">
+      <c r="AV2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AS2" s="20" t="s">
+      <c r="AW2" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="AT2" s="9" t="s">
+      <c r="AX2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AU2" s="9" t="s">
+      <c r="AY2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AV2" s="9" t="s">
+      <c r="AZ2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AW2" s="9" t="s">
+      <c r="BA2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="AX2" s="9" t="s">
+      <c r="BB2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="AY2" s="9" t="s">
+      <c r="BC2" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="AZ2" s="9" t="s">
+      <c r="BD2" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="BA2" s="10" t="s">
+      <c r="BE2" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="BB2" s="9" t="s">
+      <c r="BF2" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.2">
-      <c r="AI7" s="18"/>
+    <row r="7" spans="2:58" x14ac:dyDescent="0.2">
+      <c r="AJ7" s="18"/>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:58" x14ac:dyDescent="0.2">
       <c r="V9" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:BB2" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:BB16">
+  <autoFilter ref="B2:BF2" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:BF16">
       <sortCondition ref="F2"/>
     </sortState>
   </autoFilter>
